--- a/ig/ch-term/ValueSet-DocumentEntry.healthcareFacilityTypeCode.xlsx
+++ b/ig/ch-term/ValueSet-DocumentEntry.healthcareFacilityTypeCode.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from SNOWMED CT" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -30,13 +30,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>OID:2.16.756.5.30.1.127.3.10.1.11 (use: official)</t>
+    <t>OID:2.16.756.5.30.1.127.3.10.1.11 (use: official, )</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T11:36:46+00:00</t>
+    <t>2024-12-17T13:29:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(WORK))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/ig/ch-term/ValueSet-DocumentEntry.healthcareFacilityTypeCode.xlsx
+++ b/ig/ch-term/ValueSet-DocumentEntry.healthcareFacilityTypeCode.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="70">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T13:29:11+00:00</t>
+    <t>2025-05-21T19:27:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -93,8 +93,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Type of healthcare facility as per Annex 3; EPRO-FDHA.
-      This code describes the type of healthcare facility in which the document was compiled during the treatment process. In conjunction with the authorisation control, the patient can use this information to assign all documents from a specific type of healthcare facility to a specific confidentiality level in their rights and attributes, for example.</t>
+    <t>Type of healthcare facility as per Annex 3; EPRO-FDHA.       This code describes the type of healthcare facility in which the document was compiled during the treatment process. In conjunction with the authorisation control, the patient can use this information to assign all documents from a specific type of healthcare facility to a specific confidentiality level in their rights and attributes, for example.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -209,6 +208,12 @@
   </si>
   <si>
     <t>Free-standing birthing center (environment)</t>
+  </si>
+  <si>
+    <t>22201008</t>
+  </si>
+  <si>
+    <t>Free-standing dental clinic (environment)</t>
   </si>
   <si>
     <t/>
@@ -502,7 +507,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -653,15 +658,23 @@
         <v>65</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>67</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-term/ValueSet-DocumentEntry.healthcareFacilityTypeCode.xlsx
+++ b/ig/ch-term/ValueSet-DocumentEntry.healthcareFacilityTypeCode.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.2.0</t>
+    <t>3.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T19:27:50+00:00</t>
+    <t>2025-12-01T15:44:33+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -214,6 +214,12 @@
   </si>
   <si>
     <t>Free-standing dental clinic (environment)</t>
+  </si>
+  <si>
+    <t>1332138002</t>
+  </si>
+  <si>
+    <t>Telemedicine center (environment)</t>
   </si>
   <si>
     <t/>
@@ -507,7 +513,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -666,15 +672,23 @@
         <v>67</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>69</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
